--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,9 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
@@ -55,22 +58,52 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>beautiful</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>salad</t>
@@ -79,192 +112,153 @@
     <t>cakes</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>daughter</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>cake</t>
+    <t>cooke</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
     <t>nicely</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>always</t>
+    <t>good</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
     <t>cooking</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>good</t>
+    <t>pan</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>pan</t>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fast</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>big</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
@@ -274,37 +268,28 @@
     <t>job</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>use</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -665,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,13 +719,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3798449612403101</v>
+        <v>0.4031007751937984</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -752,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -776,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -784,49 +769,49 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.303030303030303</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>0.8984375</v>
+      </c>
+      <c r="L4">
+        <v>115</v>
+      </c>
+      <c r="M4">
+        <v>115</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>13</v>
-      </c>
-      <c r="K4">
-        <v>0.9130434782608695</v>
-      </c>
-      <c r="L4">
-        <v>63</v>
-      </c>
-      <c r="M4">
-        <v>63</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -834,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1675675675675676</v>
+        <v>0.3434343434343434</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -876,21 +861,45 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.1783783783783784</v>
+      </c>
+      <c r="C6">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>152</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8478260869565217</v>
+        <v>0.8575851393188855</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>554</v>
       </c>
       <c r="M6">
-        <v>39</v>
+        <v>554</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,21 +911,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8421052631578947</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L7">
-        <v>544</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>544</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -928,21 +937,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>102</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.7662337662337663</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L8">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -954,21 +963,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,21 +989,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7397260273972602</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1006,21 +1015,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.734375</v>
+        <v>0.7152542372881356</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,21 +1041,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7142857142857143</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L12">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1058,21 +1067,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.711864406779661</v>
+        <v>0.6875</v>
       </c>
       <c r="L13">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1084,21 +1093,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7076923076923077</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1110,47 +1119,47 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L15">
+        <v>48</v>
+      </c>
+      <c r="M15">
+        <v>48</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>24</v>
-      </c>
-      <c r="K15">
-        <v>0.6938775510204082</v>
-      </c>
-      <c r="L15">
-        <v>34</v>
-      </c>
-      <c r="M15">
-        <v>34</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6875</v>
+        <v>0.6637239165329053</v>
       </c>
       <c r="L16">
-        <v>33</v>
+        <v>827</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>827</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1162,21 +1171,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6843373493975904</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L17">
-        <v>852</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>853</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1185,24 +1194,24 @@
         <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>393</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6842105263157895</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1214,21 +1223,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.676056338028169</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L19">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1240,21 +1249,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1266,21 +1275,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6628571428571428</v>
+        <v>0.65625</v>
       </c>
       <c r="L21">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1292,12 +1301,12 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K22">
         <v>0.6428571428571429</v>
@@ -1323,16 +1332,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.6176470588235294</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1344,21 +1353,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5873015873015873</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1370,21 +1379,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5865384615384616</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="L25">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="M25">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1396,21 +1405,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5808383233532934</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1422,21 +1431,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5726495726495726</v>
+        <v>0.5903614457831325</v>
       </c>
       <c r="L27">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="M27">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1448,21 +1457,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.5694444444444444</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1474,21 +1483,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.5692307692307692</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1500,21 +1509,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.5686274509803921</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1526,21 +1535,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.5555555555555556</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="M31">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1552,21 +1561,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>0.5526315789473685</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1578,21 +1587,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>0.5357142857142857</v>
+        <v>0.5308641975308642</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1604,21 +1613,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>0.5245901639344263</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1630,21 +1639,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>0.5060240963855421</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="L35">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1656,21 +1665,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>0.5</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1682,21 +1691,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>0.492063492063492</v>
+        <v>0.48</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M37">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1708,21 +1717,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>0.4887218045112782</v>
+        <v>0.463855421686747</v>
       </c>
       <c r="L38">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="M38">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1734,21 +1743,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>0.4868421052631579</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L39">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="M39">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1760,21 +1769,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>39</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>0.48</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L40">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M40">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1786,21 +1795,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>0.427710843373494</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="L41">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="M41">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1812,21 +1821,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>0.4246575342465753</v>
+        <v>0.3796296296296297</v>
       </c>
       <c r="L42">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="M42">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1838,21 +1847,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>420</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>0.4215686274509804</v>
+        <v>0.3735408560311284</v>
       </c>
       <c r="L43">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="M43">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1864,21 +1873,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>236</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>0.4202334630350195</v>
+        <v>0.3731138545953361</v>
       </c>
       <c r="L44">
-        <v>108</v>
+        <v>272</v>
       </c>
       <c r="M44">
-        <v>108</v>
+        <v>273</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1887,24 +1896,24 @@
         <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>149</v>
+        <v>457</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>0.3762376237623762</v>
+        <v>0.3465346534653465</v>
       </c>
       <c r="L45">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M45">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1916,21 +1925,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K46">
-        <v>0.3741007194244604</v>
+        <v>0.3453237410071943</v>
       </c>
       <c r="L46">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M46">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1942,47 +1951,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K47">
-        <v>0.3734939759036144</v>
+        <v>0.325782092772384</v>
       </c>
       <c r="L47">
-        <v>31</v>
+        <v>302</v>
       </c>
       <c r="M47">
-        <v>32</v>
+        <v>304</v>
       </c>
       <c r="N47">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O47">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>52</v>
+        <v>625</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K48">
-        <v>0.3636363636363636</v>
+        <v>0.3253588516746411</v>
       </c>
       <c r="L48">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="M48">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1994,47 +2003,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K49">
-        <v>0.3611111111111111</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="L49">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M49">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K50">
-        <v>0.3513513513513514</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L50">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M50">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2046,21 +2055,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K51">
-        <v>0.3423423423423423</v>
+        <v>0.304635761589404</v>
       </c>
       <c r="L51">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M51">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2072,21 +2081,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>73</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K52">
-        <v>0.3308270676691729</v>
+        <v>0.2946708463949843</v>
       </c>
       <c r="L52">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="M52">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2098,21 +2107,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>89</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K53">
-        <v>0.3178807947019868</v>
+        <v>0.2913907284768212</v>
       </c>
       <c r="L53">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="M53">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2124,73 +2133,73 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>103</v>
+        <v>535</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K54">
-        <v>0.3067814854682454</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L54">
-        <v>285</v>
+        <v>32</v>
       </c>
       <c r="M54">
-        <v>285</v>
+        <v>33</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>644</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K55">
-        <v>0.2675496688741722</v>
+        <v>0.2785622593068036</v>
       </c>
       <c r="L55">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="M55">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>553</v>
+        <v>562</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K56">
-        <v>0.2664576802507837</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="L56">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="M56">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2202,21 +2211,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>234</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K57">
-        <v>0.2550335570469799</v>
+        <v>0.2398523985239852</v>
       </c>
       <c r="L57">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="M57">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2228,99 +2237,99 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>111</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K58">
-        <v>0.2461538461538462</v>
+        <v>0.2326732673267327</v>
       </c>
       <c r="L58">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M58">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K59">
-        <v>0.2419974391805378</v>
+        <v>0.2265625</v>
       </c>
       <c r="L59">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="M59">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="N59">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O59">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>592</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K60">
-        <v>0.227027027027027</v>
+        <v>0.2086720867208672</v>
       </c>
       <c r="L60">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="M60">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="N60">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O60">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K61">
-        <v>0.2181818181818182</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="L61">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="M61">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2332,41 +2341,41 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>129</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K62">
-        <v>0.208955223880597</v>
+        <v>0.2039473684210526</v>
       </c>
       <c r="L62">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="M62">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="N62">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>159</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K63">
-        <v>0.2051282051282051</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="L63">
         <v>32</v>
@@ -2384,79 +2393,79 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K64">
-        <v>0.2039473684210526</v>
+        <v>0.1947115384615385</v>
       </c>
       <c r="L64">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="M64">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>363</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K65">
-        <v>0.1975308641975309</v>
+        <v>0.1840490797546012</v>
       </c>
       <c r="L65">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M65">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N65">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K66">
+        <v>0.1833740831295844</v>
+      </c>
+      <c r="L66">
         <v>75</v>
       </c>
-      <c r="K66">
-        <v>0.1971153846153846</v>
-      </c>
-      <c r="L66">
-        <v>82</v>
-      </c>
       <c r="M66">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="N66">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O66">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
@@ -2467,16 +2476,16 @@
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K67">
-        <v>0.1970802919708029</v>
+        <v>0.180672268907563</v>
       </c>
       <c r="L67">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="M67">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2488,21 +2497,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>330</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K68">
-        <v>0.1932773109243698</v>
+        <v>0.1757575757575758</v>
       </c>
       <c r="L68">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M68">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2514,47 +2523,47 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>192</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K69">
-        <v>0.1890660592255125</v>
+        <v>0.1704545454545454</v>
       </c>
       <c r="L69">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="M69">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="N69">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K70">
-        <v>0.1890034364261168</v>
+        <v>0.1638418079096045</v>
       </c>
       <c r="L70">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="M70">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2566,21 +2575,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>236</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K71">
-        <v>0.1864406779661017</v>
+        <v>0.1592592592592593</v>
       </c>
       <c r="L71">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M71">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2592,125 +2601,125 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>144</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K72">
-        <v>0.1845018450184502</v>
+        <v>0.1504854368932039</v>
       </c>
       <c r="L72">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M72">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K73">
-        <v>0.1823899371069182</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L73">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M73">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N73">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>130</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K74">
-        <v>0.1740740740740741</v>
+        <v>0.1283973758200562</v>
       </c>
       <c r="L74">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="M74">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>223</v>
+        <v>930</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K75">
-        <v>0.1586538461538461</v>
+        <v>0.1253602305475504</v>
       </c>
       <c r="L75">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="M75">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>175</v>
+        <v>607</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K76">
-        <v>0.1532258064516129</v>
+        <v>0.1229508196721311</v>
       </c>
       <c r="L76">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M76">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2722,293 +2731,137 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>210</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K77">
-        <v>0.1448087431693989</v>
+        <v>0.1045918367346939</v>
       </c>
       <c r="L77">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="M77">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>313</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K78">
-        <v>0.1303939962476548</v>
+        <v>0.0996309963099631</v>
       </c>
       <c r="L78">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="M78">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N78">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>927</v>
+        <v>488</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K79">
-        <v>0.1298701298701299</v>
+        <v>0.08897485493230174</v>
       </c>
       <c r="L79">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="M79">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="N79">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="O79">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>603</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K80">
-        <v>0.1218274111675127</v>
+        <v>0.08544027898866609</v>
       </c>
       <c r="L80">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="M80">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>346</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K81">
-        <v>0.1139705882352941</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L81">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M81">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="82" spans="10:17">
-      <c r="J82" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K82">
-        <v>0.0970873786407767</v>
-      </c>
-      <c r="L82">
-        <v>40</v>
-      </c>
-      <c r="M82">
-        <v>42</v>
-      </c>
-      <c r="N82">
-        <v>0.95</v>
-      </c>
-      <c r="O82">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P82" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q82">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="83" spans="10:17">
-      <c r="J83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K83">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="L83">
-        <v>33</v>
-      </c>
-      <c r="M83">
-        <v>35</v>
-      </c>
-      <c r="N83">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O83">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P83" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q83">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K84">
-        <v>0.09040590405904059</v>
-      </c>
-      <c r="L84">
-        <v>49</v>
-      </c>
-      <c r="M84">
-        <v>49</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K85">
-        <v>0.08445297504798464</v>
-      </c>
-      <c r="L85">
-        <v>44</v>
-      </c>
-      <c r="M85">
-        <v>45</v>
-      </c>
-      <c r="N85">
-        <v>0.98</v>
-      </c>
-      <c r="O85">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K86">
-        <v>0.08405797101449275</v>
-      </c>
-      <c r="L86">
-        <v>29</v>
-      </c>
-      <c r="M86">
-        <v>29</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K87">
-        <v>0.08216783216783216</v>
-      </c>
-      <c r="L87">
-        <v>94</v>
-      </c>
-      <c r="M87">
-        <v>107</v>
-      </c>
-      <c r="N87">
-        <v>0.88</v>
-      </c>
-      <c r="O87">
-        <v>0.12</v>
-      </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>1050</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
